--- a/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/SQL/Data/REGISTER.xlsx
+++ b/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/SQL/Data/REGISTER.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
   <si>
     <t>PERSONALID</t>
   </si>
@@ -53,10 +53,106 @@
     <t>ID</t>
   </si>
   <si>
+    <t>basic</t>
+  </si>
+  <si>
+    <t>74001220820221</t>
+  </si>
+  <si>
+    <t>272826216</t>
+  </si>
+  <si>
+    <t>272697035</t>
+  </si>
+  <si>
+    <t>272272289</t>
+  </si>
+  <si>
+    <t>281332992</t>
+  </si>
+  <si>
+    <t>272893719</t>
+  </si>
+  <si>
+    <t>312567854</t>
+  </si>
+  <si>
+    <t>272867563</t>
+  </si>
+  <si>
+    <t>272863413</t>
+  </si>
+  <si>
+    <t>272863193</t>
+  </si>
+  <si>
+    <t>272863183</t>
+  </si>
+  <si>
+    <t>272496184</t>
+  </si>
+  <si>
+    <t>284991638</t>
+  </si>
+  <si>
+    <t>281352653</t>
+  </si>
+  <si>
+    <t>272893645</t>
+  </si>
+  <si>
+    <t>281323065</t>
+  </si>
+  <si>
     <t>74001220620221</t>
   </si>
   <si>
-    <t>basic</t>
+    <t>281323066</t>
+  </si>
+  <si>
+    <t>7,40012E+13</t>
+  </si>
+  <si>
+    <t>72302002734</t>
+  </si>
+  <si>
+    <t>82203004408</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>44303003709</t>
   </si>
 </sst>
 </file>
@@ -375,15 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -418,32 +514,647 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>281323065</v>
+      <c r="A2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/SQL/Data/REGISTER.xlsx
+++ b/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/SQL/Data/REGISTER.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
   <si>
     <t>PERSONALID</t>
   </si>
@@ -110,15 +110,6 @@
     <t>281323066</t>
   </si>
   <si>
-    <t>7,40012E+13</t>
-  </si>
-  <si>
-    <t>72302002734</t>
-  </si>
-  <si>
-    <t>82203004408</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -152,7 +143,13 @@
     <t>10</t>
   </si>
   <si>
-    <t>44303003709</t>
+    <t>072302002734</t>
+  </si>
+  <si>
+    <t>082203004408</t>
+  </si>
+  <si>
+    <t>044303003709</t>
   </si>
 </sst>
 </file>
@@ -473,14 +470,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -521,13 +518,13 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -535,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -546,13 +543,13 @@
         <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -560,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -571,13 +568,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -585,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -593,16 +590,16 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -610,24 +607,24 @@
         <v>9</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -635,7 +632,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -643,16 +640,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -660,24 +657,24 @@
         <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -685,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -693,16 +690,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -710,7 +707,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -718,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -735,7 +732,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -743,16 +740,16 @@
         <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -760,7 +757,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -768,16 +765,16 @@
         <v>17</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -785,7 +782,7 @@
         <v>9</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -793,16 +790,16 @@
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -810,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -818,16 +815,16 @@
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -835,7 +832,7 @@
         <v>9</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -843,16 +840,16 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -860,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -868,16 +865,16 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -885,7 +882,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -893,16 +890,16 @@
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -910,7 +907,7 @@
         <v>9</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -918,16 +915,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -935,24 +932,24 @@
         <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -960,7 +957,7 @@
         <v>9</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -968,16 +965,16 @@
         <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -985,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
